--- a/Code/Results/Cases/Case_3_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_101/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.18036842589568</v>
+        <v>14.47291449158059</v>
       </c>
       <c r="C2">
-        <v>5.611976162289983</v>
+        <v>6.536581162841211</v>
       </c>
       <c r="D2">
-        <v>4.719769081633999</v>
+        <v>4.871905231262534</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>67.12509315255149</v>
+        <v>62.06092919674609</v>
       </c>
       <c r="G2">
-        <v>2.16177704003903</v>
+        <v>3.774943278481869</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.499661027660194</v>
+        <v>11.37081718558679</v>
       </c>
       <c r="K2">
-        <v>10.2065355985296</v>
+        <v>14.14630398073385</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.10274863192072</v>
+        <v>17.47532753946232</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.51715415575881</v>
+        <v>14.42025179919829</v>
       </c>
       <c r="C3">
-        <v>5.17267899920732</v>
+        <v>6.543801668682601</v>
       </c>
       <c r="D3">
-        <v>4.466747643781126</v>
+        <v>4.906647019855798</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>64.02530577659631</v>
+        <v>61.09484299526316</v>
       </c>
       <c r="G3">
-        <v>2.172582267894124</v>
+        <v>3.778522432661807</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.393320992092161</v>
+        <v>11.37113637327892</v>
       </c>
       <c r="K3">
-        <v>9.747304996402896</v>
+        <v>14.14895675237627</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.890291649137243</v>
+        <v>17.53448646930017</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.10558656621986</v>
+        <v>14.39345028580644</v>
       </c>
       <c r="C4">
-        <v>4.892246077213912</v>
+        <v>6.551971826141193</v>
       </c>
       <c r="D4">
-        <v>4.306491883043608</v>
+        <v>4.930574101440207</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>62.07894832632006</v>
+        <v>60.49682920091463</v>
       </c>
       <c r="G4">
-        <v>2.179355113144925</v>
+        <v>3.780831702119414</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.330869845077791</v>
+        <v>11.37264039938179</v>
       </c>
       <c r="K4">
-        <v>9.468248547154007</v>
+        <v>14.15564004274797</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9.770558696765338</v>
+        <v>17.57564516552668</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.93697349768178</v>
+        <v>14.3839293669531</v>
       </c>
       <c r="C5">
-        <v>4.775208685401077</v>
+        <v>6.556235736842426</v>
       </c>
       <c r="D5">
-        <v>4.239926712182864</v>
+        <v>4.940970284289214</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>61.27546574482498</v>
+        <v>60.25212234567796</v>
       </c>
       <c r="G5">
-        <v>2.182152661672738</v>
+        <v>3.781800934941888</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.306122118774453</v>
+        <v>11.37358243093718</v>
       </c>
       <c r="K5">
-        <v>9.355404540558082</v>
+        <v>14.15963293741469</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.724433627143391</v>
+        <v>17.59363036454534</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.90892801750899</v>
+        <v>14.38243327044548</v>
       </c>
       <c r="C6">
-        <v>4.75560633802204</v>
+        <v>6.55700002664525</v>
       </c>
       <c r="D6">
-        <v>4.228796857278002</v>
+        <v>4.942735357093821</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>61.1414418546057</v>
+        <v>60.21143387813104</v>
       </c>
       <c r="G6">
-        <v>2.182619537539441</v>
+        <v>3.781963580964586</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.302054783286323</v>
+        <v>11.37375873775556</v>
       </c>
       <c r="K6">
-        <v>9.336724196321601</v>
+        <v>14.16037255641582</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.716934764565483</v>
+        <v>17.59668994364</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.10331592274228</v>
+        <v>14.39331620032762</v>
       </c>
       <c r="C7">
-        <v>4.890678921097119</v>
+        <v>6.552025554592651</v>
       </c>
       <c r="D7">
-        <v>4.305599293834749</v>
+        <v>4.930711702827713</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>62.06815332063863</v>
+        <v>60.49353282281835</v>
       </c>
       <c r="G7">
-        <v>2.179392686295354</v>
+        <v>3.780844659260642</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.330533264529889</v>
+        <v>11.37265177109543</v>
       </c>
       <c r="K7">
-        <v>9.466722952976484</v>
+        <v>14.15568875550937</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9.769925879415783</v>
+        <v>17.57588281430838</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.95269956900095</v>
+        <v>14.45361423406712</v>
       </c>
       <c r="C8">
-        <v>5.462683810698278</v>
+        <v>6.538292486810468</v>
       </c>
       <c r="D8">
-        <v>4.633525449334488</v>
+        <v>4.883341344816339</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>66.06548678908142</v>
+        <v>61.72894722679776</v>
       </c>
       <c r="G8">
-        <v>2.165475691975361</v>
+        <v>3.776154263598471</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.462396990454935</v>
+        <v>11.37065590265125</v>
       </c>
       <c r="K8">
-        <v>10.04766582313888</v>
+        <v>14.14616895276206</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.02725391859813</v>
+        <v>17.49472026587704</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.69542116311579</v>
+        <v>14.61524548673175</v>
       </c>
       <c r="C9">
-        <v>6.503096510679971</v>
+        <v>6.541185153172907</v>
       </c>
       <c r="D9">
-        <v>5.239334827404369</v>
+        <v>4.811349593128554</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.54770539019837</v>
+        <v>64.10446112810982</v>
       </c>
       <c r="G9">
-        <v>2.139145033871412</v>
+        <v>3.767837296718805</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.744193555347291</v>
+        <v>11.37711008457564</v>
       </c>
       <c r="K9">
-        <v>11.63950174792573</v>
+        <v>14.16762996161678</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>10.61803056140186</v>
+        <v>17.37405388778605</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.09356217867473</v>
+        <v>14.75960404285603</v>
       </c>
       <c r="C10">
-        <v>7.223885651137575</v>
+        <v>6.561646049338546</v>
       </c>
       <c r="D10">
-        <v>5.664549984538186</v>
+        <v>4.771613096195666</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.81858463989987</v>
+        <v>65.80958602653023</v>
       </c>
       <c r="G10">
-        <v>2.120170973191851</v>
+        <v>3.762256764934819</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.966478671532924</v>
+        <v>11.38815622003698</v>
       </c>
       <c r="K10">
-        <v>12.8406130981096</v>
+        <v>14.20782613780845</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>11.40209442516523</v>
+        <v>17.30903485463241</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.70952113408172</v>
+        <v>14.83061572284809</v>
       </c>
       <c r="C11">
-        <v>7.543912941703355</v>
+        <v>6.574942512525666</v>
       </c>
       <c r="D11">
-        <v>5.854476172094512</v>
+        <v>4.756478637759268</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.16847038264798</v>
+        <v>66.57425848717847</v>
       </c>
       <c r="G11">
-        <v>2.111564588957668</v>
+        <v>3.759831596688685</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.071222609619912</v>
+        <v>11.39454525226673</v>
       </c>
       <c r="K11">
-        <v>13.36896368803019</v>
+        <v>14.23138632445057</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>11.86467153356722</v>
+        <v>17.2846197133164</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.94007827414705</v>
+        <v>14.85825284947748</v>
       </c>
       <c r="C12">
-        <v>7.664123373622053</v>
+        <v>6.580549678493816</v>
       </c>
       <c r="D12">
-        <v>5.925972240524089</v>
+        <v>4.75117748462003</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.05172151723139</v>
+        <v>66.86205392866384</v>
       </c>
       <c r="G12">
-        <v>2.108303868159024</v>
+        <v>3.758929445314412</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.111439753966366</v>
+        <v>11.39716014293696</v>
       </c>
       <c r="K12">
-        <v>13.56664340255208</v>
+        <v>14.24106204397911</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12.03775867274301</v>
+        <v>17.27611887869597</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.89054003002861</v>
+        <v>14.85226785933555</v>
       </c>
       <c r="C13">
-        <v>7.638274670507468</v>
+        <v>6.579316668729711</v>
       </c>
       <c r="D13">
-        <v>5.910591777919334</v>
+        <v>4.75229995355092</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.86178487149402</v>
+        <v>66.80015363612588</v>
       </c>
       <c r="G13">
-        <v>2.109006288506173</v>
+        <v>3.759123020616129</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.10275310605884</v>
+        <v>11.39658829571906</v>
       </c>
       <c r="K13">
-        <v>13.52417261989986</v>
+        <v>14.23894475460736</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>12.00057071739984</v>
+        <v>17.27791653298031</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.7285419642484</v>
+        <v>14.8328746139524</v>
       </c>
       <c r="C14">
-        <v>7.553821346446924</v>
+        <v>6.575392365120199</v>
       </c>
       <c r="D14">
-        <v>5.860366211451474</v>
+        <v>4.756033853322514</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.24126605621301</v>
+        <v>66.59797210212297</v>
       </c>
       <c r="G14">
-        <v>2.111296393661522</v>
+        <v>3.759757051941173</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.074520012380503</v>
+        <v>11.39475646677278</v>
       </c>
       <c r="K14">
-        <v>13.38527368862388</v>
+        <v>14.23216727051597</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>11.87895211522436</v>
+        <v>17.28390540833398</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.62896901192855</v>
+        <v>14.82109224220961</v>
       </c>
       <c r="C15">
-        <v>7.501968956835552</v>
+        <v>6.573063051972626</v>
       </c>
       <c r="D15">
-        <v>5.829548844597673</v>
+        <v>4.7583771665993</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.86033204617094</v>
+        <v>66.47389419775001</v>
       </c>
       <c r="G15">
-        <v>2.112698763370589</v>
+        <v>3.760147521954524</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.0572994823592</v>
+        <v>11.39365985804841</v>
       </c>
       <c r="K15">
-        <v>13.29988850145798</v>
+        <v>14.22811390421132</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>11.80419191475484</v>
+        <v>17.28767080694354</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.05291974440637</v>
+        <v>14.75506894851956</v>
       </c>
       <c r="C16">
-        <v>7.202825541532897</v>
+        <v>6.5608572594197</v>
       </c>
       <c r="D16">
-        <v>5.652073804498177</v>
+        <v>4.772661961100902</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.66407151579411</v>
+        <v>65.75937533766238</v>
       </c>
       <c r="G16">
-        <v>2.120733489430485</v>
+        <v>3.762417529103338</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.959708908755402</v>
+        <v>11.38776607703885</v>
       </c>
       <c r="K16">
-        <v>12.80573756620828</v>
+        <v>14.2063922053854</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>11.371562521562</v>
+        <v>17.31073452445612</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.694519811002</v>
+        <v>14.71591919692699</v>
       </c>
       <c r="C17">
-        <v>7.017399521989123</v>
+        <v>6.554390354742734</v>
       </c>
       <c r="D17">
-        <v>5.542353146940289</v>
+        <v>4.782183676432268</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.30462921510579</v>
+        <v>65.3180882430062</v>
       </c>
       <c r="G17">
-        <v>2.125665405568733</v>
+        <v>3.763839085179383</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.900789227028921</v>
+        <v>11.38449937374224</v>
       </c>
       <c r="K17">
-        <v>12.49810520365281</v>
+        <v>14.19441478141501</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>11.10225432215859</v>
+        <v>17.32620729293517</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.48647585903712</v>
+        <v>14.69390554152715</v>
       </c>
       <c r="C18">
-        <v>6.909996841593494</v>
+        <v>6.551046368761051</v>
       </c>
       <c r="D18">
-        <v>5.478909236666543</v>
+        <v>4.787936817349775</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.51818220389526</v>
+        <v>65.06324722172897</v>
       </c>
       <c r="G18">
-        <v>2.128504820710837</v>
+        <v>3.764667410799189</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.867239175895612</v>
+        <v>11.38274889160878</v>
       </c>
       <c r="K18">
-        <v>12.31945180806567</v>
+        <v>14.18802251010352</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>10.94586439076232</v>
+        <v>17.33559260210113</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.41570381034438</v>
+        <v>14.68653933331126</v>
       </c>
       <c r="C19">
-        <v>6.873498893923497</v>
+        <v>6.549978687448715</v>
       </c>
       <c r="D19">
-        <v>5.457368381254254</v>
+        <v>4.789932007971476</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.25112038456524</v>
+        <v>64.97679235206506</v>
       </c>
       <c r="G19">
-        <v>2.129466812280544</v>
+        <v>3.764949705865469</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.855937070512044</v>
+        <v>11.38217828639574</v>
       </c>
       <c r="K19">
-        <v>12.25866323757037</v>
+        <v>14.185943646267</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10.89265226153582</v>
+        <v>17.33885366538802</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.73286763986411</v>
+        <v>14.72003471902847</v>
       </c>
       <c r="C20">
-        <v>7.037215070605519</v>
+        <v>6.555039900714929</v>
       </c>
       <c r="D20">
-        <v>5.554067285056749</v>
+        <v>4.781141406097806</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.44981164255969</v>
+        <v>65.36517141134915</v>
       </c>
       <c r="G20">
-        <v>2.12514015042136</v>
+        <v>3.763686653110364</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.907026035708395</v>
+        <v>11.38483383136141</v>
       </c>
       <c r="K20">
-        <v>12.53102895392317</v>
+        <v>14.19563840829929</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>11.13107572220697</v>
+        <v>17.32450989632943</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77619611757025</v>
+        <v>14.83855080000483</v>
       </c>
       <c r="C21">
-        <v>7.578652513954717</v>
+        <v>6.576529520244619</v>
       </c>
       <c r="D21">
-        <v>5.875129512496859</v>
+        <v>4.754925394099653</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.42370352964299</v>
+        <v>66.65740720050761</v>
       </c>
       <c r="G21">
-        <v>2.110623825089491</v>
+        <v>3.75957038255473</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.082797465560137</v>
+        <v>11.39528921907807</v>
       </c>
       <c r="K21">
-        <v>13.42613496247324</v>
+        <v>14.23413756038672</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>11.9147293830729</v>
+        <v>17.28212610375465</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.44248786457381</v>
+        <v>14.92034817054367</v>
       </c>
       <c r="C22">
-        <v>7.926906670552462</v>
+        <v>6.593907177252103</v>
       </c>
       <c r="D22">
-        <v>6.082532187066351</v>
+        <v>4.740300768844425</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.98265227831642</v>
+        <v>67.49156289446037</v>
       </c>
       <c r="G22">
-        <v>2.101123853533432</v>
+        <v>3.756974580909084</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.200916790097981</v>
+        <v>11.40326159507861</v>
       </c>
       <c r="K22">
-        <v>13.99728918171817</v>
+        <v>14.26369092089191</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>12.41486367090167</v>
+        <v>17.25876712034314</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.08822894976561</v>
+        <v>14.87630181367616</v>
       </c>
       <c r="C23">
-        <v>7.741493121085743</v>
+        <v>6.584328252335945</v>
       </c>
       <c r="D23">
-        <v>5.972030191490123</v>
+        <v>4.747874403552987</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.62025434222411</v>
+        <v>67.04736950517184</v>
       </c>
       <c r="G23">
-        <v>2.106197262328338</v>
+        <v>3.758351404632819</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.137565300727809</v>
+        <v>11.39890259130473</v>
       </c>
       <c r="K23">
-        <v>13.69364795698075</v>
+        <v>14.2475176533095</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>12.14896815868751</v>
+        <v>17.2708363259976</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71553681464809</v>
+        <v>14.71817255091198</v>
       </c>
       <c r="C24">
-        <v>7.028258960459753</v>
+        <v>6.554745076139129</v>
       </c>
       <c r="D24">
-        <v>5.548772462949937</v>
+        <v>4.781611748051464</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.38418990376536</v>
+        <v>65.3438886448471</v>
       </c>
       <c r="G24">
-        <v>2.125377605454922</v>
+        <v>3.763755533207252</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.904205368667657</v>
+        <v>11.3846822256104</v>
       </c>
       <c r="K24">
-        <v>12.51614972110295</v>
+        <v>14.1950836683863</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>11.11805044282189</v>
+        <v>17.32527576379185</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.16165685078188</v>
+        <v>14.5669538675286</v>
       </c>
       <c r="C25">
-        <v>6.22977657364556</v>
+        <v>6.537189028919395</v>
       </c>
       <c r="D25">
-        <v>5.07917442311604</v>
+        <v>4.828544475297902</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>71.56320493539405</v>
+        <v>63.46806799704111</v>
       </c>
       <c r="G25">
-        <v>2.14618604515431</v>
+        <v>3.769993683729399</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.665372022489432</v>
+        <v>11.37425544107152</v>
       </c>
       <c r="K25">
-        <v>11.17998928913746</v>
+        <v>14.15752731412132</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>10.44882155447514</v>
+        <v>17.40255817757207</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_101/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.47291449158059</v>
+        <v>12.18036842589567</v>
       </c>
       <c r="C2">
-        <v>6.536581162841211</v>
+        <v>5.611976162289938</v>
       </c>
       <c r="D2">
-        <v>4.871905231262534</v>
+        <v>4.719769081634063</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>62.06092919674609</v>
+        <v>67.12509315255191</v>
       </c>
       <c r="G2">
-        <v>3.774943278481869</v>
+        <v>2.161777040038649</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.37081718558679</v>
+        <v>7.49966102766024</v>
       </c>
       <c r="K2">
-        <v>14.14630398073385</v>
+        <v>10.20653559852956</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.47532753946232</v>
+        <v>10.10274863192068</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.42025179919829</v>
+        <v>11.51715415575886</v>
       </c>
       <c r="C3">
-        <v>6.543801668682601</v>
+        <v>5.172678999207509</v>
       </c>
       <c r="D3">
-        <v>4.906647019855798</v>
+        <v>4.466747643781048</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>61.09484299526316</v>
+        <v>64.02530577659631</v>
       </c>
       <c r="G3">
-        <v>3.778522432661807</v>
+        <v>2.172582267893992</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.37113637327892</v>
+        <v>7.393320992092309</v>
       </c>
       <c r="K3">
-        <v>14.14895675237627</v>
+        <v>9.747304996402882</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.53448646930017</v>
+        <v>9.890291649137287</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.39345028580644</v>
+        <v>11.10558656621989</v>
       </c>
       <c r="C4">
-        <v>6.551971826141193</v>
+        <v>4.892246077213898</v>
       </c>
       <c r="D4">
-        <v>4.930574101440207</v>
+        <v>4.306491883043871</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>60.49682920091463</v>
+        <v>62.07894832632012</v>
       </c>
       <c r="G4">
-        <v>3.780831702119414</v>
+        <v>2.179355113144787</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.37264039938179</v>
+        <v>7.330869845077771</v>
       </c>
       <c r="K4">
-        <v>14.15564004274797</v>
+        <v>9.46824854715404</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.57564516552668</v>
+        <v>9.770558696765313</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.3839293669531</v>
+        <v>10.93697349768179</v>
       </c>
       <c r="C5">
-        <v>6.556235736842426</v>
+        <v>4.775208685401219</v>
       </c>
       <c r="D5">
-        <v>4.940970284289214</v>
+        <v>4.239926712182599</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.25212234567796</v>
+        <v>61.27546574482508</v>
       </c>
       <c r="G5">
-        <v>3.781800934941888</v>
+        <v>2.182152661672867</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.37358243093718</v>
+        <v>7.30612211877438</v>
       </c>
       <c r="K5">
-        <v>14.15963293741469</v>
+        <v>9.355404540558064</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.59363036454534</v>
+        <v>9.724433627143403</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.38243327044548</v>
+        <v>10.90892801750907</v>
       </c>
       <c r="C6">
-        <v>6.55700002664525</v>
+        <v>4.75560633802234</v>
       </c>
       <c r="D6">
-        <v>4.942735357093821</v>
+        <v>4.228796857278056</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>60.21143387813104</v>
+        <v>61.14144185460527</v>
       </c>
       <c r="G6">
-        <v>3.781963580964586</v>
+        <v>2.18261953753957</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.37375873775556</v>
+        <v>7.302054783286398</v>
       </c>
       <c r="K6">
-        <v>14.16037255641582</v>
+        <v>9.336724196321624</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.59668994364</v>
+        <v>9.716934764565554</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.39331620032762</v>
+        <v>11.10331592274218</v>
       </c>
       <c r="C7">
-        <v>6.552025554592651</v>
+        <v>4.890678921096879</v>
       </c>
       <c r="D7">
-        <v>4.930711702827713</v>
+        <v>4.305599293834822</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>60.49353282281835</v>
+        <v>62.06815332063894</v>
       </c>
       <c r="G7">
-        <v>3.780844659260642</v>
+        <v>2.179392686295489</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.37265177109543</v>
+        <v>7.330533264529886</v>
       </c>
       <c r="K7">
-        <v>14.15568875550937</v>
+        <v>9.466722952976413</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.57588281430838</v>
+        <v>9.769925879415736</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.45361423406712</v>
+        <v>11.95269956900092</v>
       </c>
       <c r="C8">
-        <v>6.538292486810468</v>
+        <v>5.462683810698265</v>
       </c>
       <c r="D8">
-        <v>4.883341344816339</v>
+        <v>4.633525449334627</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.72894722679776</v>
+        <v>66.06548678908163</v>
       </c>
       <c r="G8">
-        <v>3.776154263598471</v>
+        <v>2.1654756919755</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.37065590265125</v>
+        <v>7.46239699045497</v>
       </c>
       <c r="K8">
-        <v>14.14616895276206</v>
+        <v>10.04766582313888</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.49472026587704</v>
+        <v>10.0272539185981</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.61524548673175</v>
+        <v>13.6954211631158</v>
       </c>
       <c r="C9">
-        <v>6.541185153172907</v>
+        <v>6.50309651067981</v>
       </c>
       <c r="D9">
-        <v>4.811349593128554</v>
+        <v>5.239334827404316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>64.10446112810982</v>
+        <v>73.54770539019856</v>
       </c>
       <c r="G9">
-        <v>3.767837296718805</v>
+        <v>2.139145033870886</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.37711008457564</v>
+        <v>7.744193555347248</v>
       </c>
       <c r="K9">
-        <v>14.16762996161678</v>
+        <v>11.63950174792571</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.37405388778605</v>
+        <v>10.61803056140185</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.75960404285603</v>
+        <v>15.09356217867478</v>
       </c>
       <c r="C10">
-        <v>6.561646049338546</v>
+        <v>7.223885651137696</v>
       </c>
       <c r="D10">
-        <v>4.771613096195666</v>
+        <v>5.664549984538211</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>65.80958602653023</v>
+        <v>78.8185846398997</v>
       </c>
       <c r="G10">
-        <v>3.762256764934819</v>
+        <v>2.120170973191851</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.38815622003698</v>
+        <v>7.966478671532978</v>
       </c>
       <c r="K10">
-        <v>14.20782613780845</v>
+        <v>12.84061309810968</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.30903485463241</v>
+        <v>11.40209442516523</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.83061572284809</v>
+        <v>15.70952113408169</v>
       </c>
       <c r="C11">
-        <v>6.574942512525666</v>
+        <v>7.543912941703542</v>
       </c>
       <c r="D11">
-        <v>4.756478637759268</v>
+        <v>5.854476172094576</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>66.57425848717847</v>
+        <v>81.16847038264875</v>
       </c>
       <c r="G11">
-        <v>3.759831596688685</v>
+        <v>2.111564588957793</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.39454525226673</v>
+        <v>8.071222609619911</v>
       </c>
       <c r="K11">
-        <v>14.23138632445057</v>
+        <v>13.36896368803028</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.2846197133164</v>
+        <v>11.86467153356726</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.85825284947748</v>
+        <v>15.94007827414704</v>
       </c>
       <c r="C12">
-        <v>6.580549678493816</v>
+        <v>7.66412337362209</v>
       </c>
       <c r="D12">
-        <v>4.75117748462003</v>
+        <v>5.925972240524043</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>66.86205392866384</v>
+        <v>82.05172151723043</v>
       </c>
       <c r="G12">
-        <v>3.758929445314412</v>
+        <v>2.108303868158893</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.39716014293696</v>
+        <v>8.11143975396635</v>
       </c>
       <c r="K12">
-        <v>14.24106204397911</v>
+        <v>13.56664340255209</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.27611887869597</v>
+        <v>12.03775867274307</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.85226785933555</v>
+        <v>15.89054003002869</v>
       </c>
       <c r="C13">
-        <v>6.579316668729711</v>
+        <v>7.638274670507039</v>
       </c>
       <c r="D13">
-        <v>4.75229995355092</v>
+        <v>5.910591777919348</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>66.80015363612588</v>
+        <v>81.86178487149432</v>
       </c>
       <c r="G13">
-        <v>3.759123020616129</v>
+        <v>2.109006288506155</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.39658829571906</v>
+        <v>8.102753106058893</v>
       </c>
       <c r="K13">
-        <v>14.23894475460736</v>
+        <v>13.52417261989985</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.27791653298031</v>
+        <v>12.00057071739977</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.8328746139524</v>
+        <v>15.72854196424841</v>
       </c>
       <c r="C14">
-        <v>6.575392365120199</v>
+        <v>7.553821346446974</v>
       </c>
       <c r="D14">
-        <v>4.756033853322514</v>
+        <v>5.860366211451539</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>66.59797210212297</v>
+        <v>81.24126605621306</v>
       </c>
       <c r="G14">
-        <v>3.759757051941173</v>
+        <v>2.111296393661643</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.39475646677278</v>
+        <v>8.074520012380573</v>
       </c>
       <c r="K14">
-        <v>14.23216727051597</v>
+        <v>13.38527368862393</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.28390540833398</v>
+        <v>11.8789521152244</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.82109224220961</v>
+        <v>15.62896901192855</v>
       </c>
       <c r="C15">
-        <v>6.573063051972626</v>
+        <v>7.501968956835365</v>
       </c>
       <c r="D15">
-        <v>4.7583771665993</v>
+        <v>5.829548844597614</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>66.47389419775001</v>
+        <v>80.86033204617034</v>
       </c>
       <c r="G15">
-        <v>3.760147521954524</v>
+        <v>2.112698763370577</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.39365985804841</v>
+        <v>8.057299482359163</v>
       </c>
       <c r="K15">
-        <v>14.22811390421132</v>
+        <v>13.29988850145788</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.28767080694354</v>
+        <v>11.80419191475479</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.75506894851956</v>
+        <v>15.05291974440647</v>
       </c>
       <c r="C16">
-        <v>6.5608572594197</v>
+        <v>7.202825541533129</v>
       </c>
       <c r="D16">
-        <v>4.772661961100902</v>
+        <v>5.652073804498142</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>65.75937533766238</v>
+        <v>78.66407151579446</v>
       </c>
       <c r="G16">
-        <v>3.762417529103338</v>
+        <v>2.120733489430343</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.38776607703885</v>
+        <v>7.959708908755431</v>
       </c>
       <c r="K16">
-        <v>14.2063922053854</v>
+        <v>12.80573756620841</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.31073452445612</v>
+        <v>11.37156252156204</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.71591919692699</v>
+        <v>14.69451981100201</v>
       </c>
       <c r="C17">
-        <v>6.554390354742734</v>
+        <v>7.017399521989155</v>
       </c>
       <c r="D17">
-        <v>4.782183676432268</v>
+        <v>5.542353146940269</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>65.3180882430062</v>
+        <v>77.30462921510653</v>
       </c>
       <c r="G17">
-        <v>3.763839085179383</v>
+        <v>2.125665405568864</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.38449937374224</v>
+        <v>7.90078922702893</v>
       </c>
       <c r="K17">
-        <v>14.19441478141501</v>
+        <v>12.49810520365283</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.32620729293517</v>
+        <v>11.10225432215858</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.69390554152715</v>
+        <v>14.48647585903709</v>
       </c>
       <c r="C18">
-        <v>6.551046368761051</v>
+        <v>6.909996841593295</v>
       </c>
       <c r="D18">
-        <v>4.787936817349775</v>
+        <v>5.478909236666769</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>65.06324722172897</v>
+        <v>76.51818220389531</v>
       </c>
       <c r="G18">
-        <v>3.764667410799189</v>
+        <v>2.128504820710572</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.38274889160878</v>
+        <v>7.867239175895676</v>
       </c>
       <c r="K18">
-        <v>14.18802251010352</v>
+        <v>12.31945180806554</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.33559260210113</v>
+        <v>10.94586439076226</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.68653933331126</v>
+        <v>14.41570381034437</v>
       </c>
       <c r="C19">
-        <v>6.549978687448715</v>
+        <v>6.87349889392347</v>
       </c>
       <c r="D19">
-        <v>4.789932007971476</v>
+        <v>5.457368381254349</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>64.97679235206506</v>
+        <v>76.25112038456517</v>
       </c>
       <c r="G19">
-        <v>3.764949705865469</v>
+        <v>2.12946681228054</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.38217828639574</v>
+        <v>7.855937070512072</v>
       </c>
       <c r="K19">
-        <v>14.185943646267</v>
+        <v>12.25866323757035</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.33885366538802</v>
+        <v>10.89265226153583</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.72003471902847</v>
+        <v>14.73286763986406</v>
       </c>
       <c r="C20">
-        <v>6.555039900714929</v>
+        <v>7.037215070605519</v>
       </c>
       <c r="D20">
-        <v>4.781141406097806</v>
+        <v>5.554067285056878</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>65.36517141134915</v>
+        <v>77.44981164255955</v>
       </c>
       <c r="G20">
-        <v>3.763686653110364</v>
+        <v>2.125140150421482</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.38483383136141</v>
+        <v>7.907026035708431</v>
       </c>
       <c r="K20">
-        <v>14.19563840829929</v>
+        <v>12.53102895392314</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.32450989632943</v>
+        <v>11.13107572220695</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.83855080000483</v>
+        <v>15.77619611757028</v>
       </c>
       <c r="C21">
-        <v>6.576529520244619</v>
+        <v>7.578652513954755</v>
       </c>
       <c r="D21">
-        <v>4.754925394099653</v>
+        <v>5.875129512496958</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>66.65740720050761</v>
+        <v>81.42370352964335</v>
       </c>
       <c r="G21">
-        <v>3.75957038255473</v>
+        <v>2.110623825089097</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.39528921907807</v>
+        <v>8.082797465560111</v>
       </c>
       <c r="K21">
-        <v>14.23413756038672</v>
+        <v>13.42613496247327</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.28212610375465</v>
+        <v>11.91472938307299</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.92034817054367</v>
+        <v>16.44248786457391</v>
       </c>
       <c r="C22">
-        <v>6.593907177252103</v>
+        <v>7.926906670552554</v>
       </c>
       <c r="D22">
-        <v>4.740300768844425</v>
+        <v>6.082532187066402</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>67.49156289446037</v>
+        <v>83.98265227831649</v>
       </c>
       <c r="G22">
-        <v>3.756974580909084</v>
+        <v>2.10112385353332</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.40326159507861</v>
+        <v>8.200916790097944</v>
       </c>
       <c r="K22">
-        <v>14.26369092089191</v>
+        <v>13.99728918171821</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.25876712034314</v>
+        <v>12.41486367090168</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.87630181367616</v>
+        <v>16.08822894976548</v>
       </c>
       <c r="C23">
-        <v>6.584328252335945</v>
+        <v>7.7414931210861</v>
       </c>
       <c r="D23">
-        <v>4.747874403552987</v>
+        <v>5.972030191489973</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>67.04736950517184</v>
+        <v>82.62025434222403</v>
       </c>
       <c r="G23">
-        <v>3.758351404632819</v>
+        <v>2.106197262328195</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.39890259130473</v>
+        <v>8.137565300727735</v>
       </c>
       <c r="K23">
-        <v>14.2475176533095</v>
+        <v>13.69364795698077</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.2708363259976</v>
+        <v>12.14896815868753</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71817255091198</v>
+        <v>14.7155368146482</v>
       </c>
       <c r="C24">
-        <v>6.554745076139129</v>
+        <v>7.028258960459609</v>
       </c>
       <c r="D24">
-        <v>4.781611748051464</v>
+        <v>5.54877246294987</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>65.3438886448471</v>
+        <v>77.38418990376491</v>
       </c>
       <c r="G24">
-        <v>3.763755533207252</v>
+        <v>2.125377605455044</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.3846822256104</v>
+        <v>7.904205368667726</v>
       </c>
       <c r="K24">
-        <v>14.1950836683863</v>
+        <v>12.51614972110297</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.32527576379185</v>
+        <v>11.11805044282188</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.5669538675286</v>
+        <v>13.16165685078191</v>
       </c>
       <c r="C25">
-        <v>6.537189028919395</v>
+        <v>6.22977657364531</v>
       </c>
       <c r="D25">
-        <v>4.828544475297902</v>
+        <v>5.079174423116093</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>63.46806799704111</v>
+        <v>71.56320493539455</v>
       </c>
       <c r="G25">
-        <v>3.769993683729399</v>
+        <v>2.146186045154171</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.37425544107152</v>
+        <v>7.665372022489432</v>
       </c>
       <c r="K25">
-        <v>14.15752731412132</v>
+        <v>11.17998928913741</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.40255817757207</v>
+        <v>10.44882155447513</v>
       </c>
       <c r="N25">
         <v>0</v>
